--- a/app/webroot/img/formatos/formato-excel1.xlsx
+++ b/app/webroot/img/formatos/formato-excel1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116">
   <si>
     <t>ESTADO GENERAL DE CUENTAS POR COBRAR</t>
   </si>
@@ -364,12 +364,6 @@
   </si>
   <si>
     <t>B-17</t>
-  </si>
-  <si>
-    <t>B-18</t>
-  </si>
-  <si>
-    <t>TOTAL BS.</t>
   </si>
 </sst>
 </file>
@@ -378,13 +372,13 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
@@ -447,19 +441,6 @@
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <u val="doubleAccounting"/>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -475,7 +456,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -507,58 +488,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -576,11 +505,11 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -605,10 +534,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -631,27 +560,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -967,11 +875,11 @@
         </a:custGeom>
         <a:gradFill rotWithShape="0">
           <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
             <a:gs pos="100000">
               <a:srgbClr val="9CBEE0"/>
-            </a:gs>
-            <a:gs pos="0">
-              <a:srgbClr val="BBD5F0"/>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
@@ -995,10 +903,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A2:R212"/>
+  <dimension ref="A2:R210"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="F216" sqref="F216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75333333333333" defaultRowHeight="15"/>
@@ -6212,93 +6120,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" customFormat="1" ht="15.75" spans="1:15">
-      <c r="A211" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="B211" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="C211" s="20"/>
-      <c r="D211" s="20"/>
-      <c r="E211" s="20"/>
-      <c r="F211" s="20"/>
-      <c r="G211" s="20"/>
-      <c r="H211" s="20"/>
-      <c r="I211" s="20"/>
-      <c r="J211" s="20"/>
-      <c r="K211" s="20"/>
-      <c r="L211" s="20"/>
-      <c r="M211" s="20"/>
-      <c r="N211" s="20"/>
-      <c r="O211" s="20">
-        <f>SUM(C211:N211)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" customFormat="1" ht="15.75" spans="1:15">
-      <c r="A212" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="B212" s="22"/>
-      <c r="C212" s="23">
-        <f t="shared" ref="C212:O212" si="4">SUM(C6:C211)</f>
-        <v>623</v>
-      </c>
-      <c r="D212" s="23">
-        <f>SUM(D6:D211)</f>
-        <v>762</v>
-      </c>
-      <c r="E212" s="23">
-        <f>SUM(E6:E211)</f>
-        <v>824</v>
-      </c>
-      <c r="F212" s="23">
-        <f>SUM(F6:F211)</f>
-        <v>824</v>
-      </c>
-      <c r="G212" s="23">
-        <f>SUM(G6:G211)</f>
-        <v>824</v>
-      </c>
-      <c r="H212" s="23">
-        <f>SUM(H6:H211)</f>
-        <v>824</v>
-      </c>
-      <c r="I212" s="23">
-        <f>SUM(I6:I211)</f>
-        <v>824</v>
-      </c>
-      <c r="J212" s="23">
-        <f>SUM(J6:J211)</f>
-        <v>686</v>
-      </c>
-      <c r="K212" s="23">
-        <f>SUM(K6:K211)</f>
-        <v>686</v>
-      </c>
-      <c r="L212" s="23">
-        <f>SUM(L6:L211)</f>
-        <v>1417</v>
-      </c>
-      <c r="M212" s="23">
-        <f>SUM(M6:M211)</f>
-        <v>1501</v>
-      </c>
-      <c r="N212" s="23">
-        <f>SUM(N6:N211)</f>
-        <v>1501</v>
-      </c>
-      <c r="O212" s="24">
-        <f>SUM(O6:O211)</f>
-        <v>11296</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="A2:O2"/>
     <mergeCell ref="A3:O3"/>
-    <mergeCell ref="A212:B212"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
